--- a/datafiles/userGroupMgtData.xlsx
+++ b/datafiles/userGroupMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="762" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="creUserGroup" sheetId="30" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
   <si>
     <t>test_num</t>
   </si>
@@ -406,10 +406,7 @@
     <t>用户组管理-删除用户组-用户组内包含用户</t>
   </si>
   <si>
-    <t>用户组内包含用户</t>
-  </si>
-  <si>
-    <t>临时code，需rd提供更新的code</t>
+    <t>请先删除组成员</t>
   </si>
   <si>
     <t>004</t>
@@ -1921,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2224,13 +2221,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
@@ -2297,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="27" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="2">
-        <v>220019</v>
+        <v>1012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>79</v>
@@ -2316,16 +2313,13 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>76</v>
@@ -2382,10 +2376,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2402,10 +2396,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2424,7 +2418,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2459,10 +2453,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2479,16 +2473,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="2">
+        <v>220018</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1039</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
@@ -2496,10 +2490,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="2">
         <v>220001</v>
@@ -2513,13 +2507,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2576,10 +2570,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2596,16 +2590,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D3" s="2">
         <v>220015</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2">
         <v>220001</v>
@@ -2633,13 +2627,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="81" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2657,7 +2651,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2693,10 +2687,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2713,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="2">
         <v>220001</v>
@@ -2730,10 +2724,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
